--- a/1.东方阿尔法-迅策资产数据管理系统客户需求和问题跟踪表.xlsx
+++ b/1.东方阿尔法-迅策资产数据管理系统客户需求和问题跟踪表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAO\Desktop\customer\11.东方阿尔法\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAO\Desktop\IPB-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8262D8-B2F8-422A-A513-7FA7BF4BEFC3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99627290-485B-4D15-AFD3-97B64944C684}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15816" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="客户需求跟踪表" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="83">
   <si>
     <t>客户原始需求</t>
   </si>
@@ -296,14 +296,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>临时修复</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>待发正式包完全解决</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>ipb系统
 3.31.2/0</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -376,6 +368,10 @@
   </si>
   <si>
     <t>同一个公司的股票，各市场的股票持仓需要合并计算风控，比如：A股和港股的股票需要合并计算不超过10%流通股本的风控</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修复</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -789,6 +785,81 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="13" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -797,81 +868,6 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1288,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M11" sqref="A11:M11"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1307,23 +1303,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="31" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -1380,7 +1376,7 @@
         <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>12</v>
@@ -1396,7 +1392,7 @@
         <v>43581</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="8"/>
@@ -1423,7 +1419,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="8"/>
@@ -1450,7 +1446,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L5" s="7"/>
       <c r="M5" s="8"/>
@@ -1477,7 +1473,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="8"/>
@@ -1504,7 +1500,7 @@
       <c r="I7" s="8"/>
       <c r="J7" s="20"/>
       <c r="K7" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
@@ -1531,7 +1527,7 @@
       <c r="I8" s="8"/>
       <c r="J8" s="20"/>
       <c r="K8" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
@@ -1554,7 +1550,7 @@
         <v>27</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="20">
@@ -1564,7 +1560,7 @@
         <v>43581</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
@@ -1580,7 +1576,7 @@
         <v>26</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="18" t="s">
@@ -1591,33 +1587,33 @@
       <c r="I10" s="8"/>
       <c r="J10" s="21"/>
       <c r="K10" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="55">
+      <c r="A11" s="52">
         <v>43556</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="56"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
+      <c r="C11" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="53"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:M10" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -1649,9 +1645,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+    <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="M3" sqref="M2:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1672,306 +1668,304 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="M1" s="30" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="35">
+      <c r="A2" s="32">
         <v>1</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="33">
         <v>43495</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="39" t="s">
+      <c r="E2" s="35"/>
+      <c r="F2" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="41">
+      <c r="H2" s="37"/>
+      <c r="I2" s="38">
         <v>43539</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="L2" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="42"/>
+      <c r="M2" s="32"/>
     </row>
     <row r="3" spans="1:13" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="35">
+      <c r="A3" s="32">
         <v>2</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="33">
         <v>43495</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="39" t="s">
+      <c r="E3" s="35"/>
+      <c r="F3" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="41">
+      <c r="I3" s="38">
         <v>43539</v>
       </c>
-      <c r="J3" s="39" t="s">
+      <c r="J3" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="37" t="s">
+      <c r="K3" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="L3" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="M3" s="42"/>
+      <c r="M3" s="32"/>
     </row>
     <row r="4" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="42">
+      <c r="A4" s="39">
         <v>3</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="40">
         <v>43543</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="46" t="s">
+      <c r="E4" s="42"/>
+      <c r="F4" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="44" t="s">
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="L4" s="44" t="s">
+      <c r="L4" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="M4" s="42"/>
+      <c r="M4" s="39"/>
     </row>
     <row r="5" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35">
+      <c r="A5" s="32">
         <v>4</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="33">
         <v>43545</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="39" t="s">
+      <c r="E5" s="32"/>
+      <c r="F5" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="H5" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="L5" s="37" t="s">
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="L5" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="M5" s="38" t="s">
-        <v>64</v>
-      </c>
+      <c r="M5" s="35"/>
     </row>
     <row r="6" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42">
+      <c r="A6" s="39">
         <v>5</v>
       </c>
-      <c r="B6" s="43">
+      <c r="B6" s="40">
         <v>43546</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="G6" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="H6" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="44" t="s">
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="L6" s="42"/>
-      <c r="M6" s="45"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="42"/>
     </row>
     <row r="7" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48">
+      <c r="A7" s="45">
         <v>6</v>
       </c>
-      <c r="B7" s="49">
+      <c r="B7" s="46">
         <v>43546</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="50" t="s">
+      <c r="D7" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="F7" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7" s="45"/>
+      <c r="M7" s="48" t="s">
         <v>70</v>
-      </c>
-      <c r="G7" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="L7" s="48"/>
-      <c r="M7" s="51" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42">
+      <c r="A8" s="39">
         <v>7</v>
       </c>
-      <c r="B8" s="43">
+      <c r="B8" s="40">
         <v>43557</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="42"/>
-      <c r="F8" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="44" t="s">
+      <c r="D8" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="39"/>
+      <c r="F8" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
     </row>
     <row r="9" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48">
+      <c r="A9" s="45">
         <v>8</v>
       </c>
-      <c r="B9" s="49">
+      <c r="B9" s="46">
         <v>43558</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="50" t="s">
+      <c r="D9" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="54" t="s">
-        <v>81</v>
+      <c r="F9" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="51" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
